--- a/static/download/2020/RP3_APT_CDO_2020_Jan_Dec.xlsx
+++ b/static/download/2020/RP3_APT_CDO_2020_Jan_Dec.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="349">
   <si>
     <t>Data source</t>
   </si>
@@ -980,85 +980,85 @@
     <t>LPMA</t>
   </si>
   <si>
-    <t>Montijo (LPMT)</t>
+    <t>Ponta Delgada (LPPD)</t>
+  </si>
+  <si>
+    <t>LPPD</t>
+  </si>
+  <si>
+    <t>Porto (LPPR)</t>
+  </si>
+  <si>
+    <t>LPPR</t>
+  </si>
+  <si>
+    <t>Porto Santo (LPPS)</t>
+  </si>
+  <si>
+    <t>LPPS</t>
+  </si>
+  <si>
+    <t>Lisbon (LPPT)</t>
+  </si>
+  <si>
+    <t>LPPT</t>
+  </si>
+  <si>
+    <t>Bucharest/ Băneasa (LRBS)</t>
+  </si>
+  <si>
+    <t>LRBS</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Bucharest/ Otopeni (LROP)</t>
+  </si>
+  <si>
+    <t>LROP</t>
+  </si>
+  <si>
+    <t>Geneva (LSGG)</t>
+  </si>
+  <si>
+    <t>LSGG</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Zürich (LSZH)</t>
+  </si>
+  <si>
+    <t>LSZH</t>
+  </si>
+  <si>
+    <t>Change date</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Data for GCLP added</t>
+  </si>
+  <si>
+    <t>UK airports</t>
+  </si>
+  <si>
+    <t>UK airports removed</t>
   </si>
   <si>
     <t>LPMT</t>
   </si>
   <si>
-    <t>Ponta Delgada (LPPD)</t>
-  </si>
-  <si>
-    <t>LPPD</t>
-  </si>
-  <si>
-    <t>Porto (LPPR)</t>
-  </si>
-  <si>
-    <t>LPPR</t>
-  </si>
-  <si>
-    <t>Porto Santo (LPPS)</t>
-  </si>
-  <si>
-    <t>LPPS</t>
-  </si>
-  <si>
-    <t>Lisbon (LPPT)</t>
-  </si>
-  <si>
-    <t>LPPT</t>
-  </si>
-  <si>
-    <t>Bucharest/ Băneasa (LRBS)</t>
-  </si>
-  <si>
-    <t>LRBS</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Bucharest/ Otopeni (LROP)</t>
-  </si>
-  <si>
-    <t>LROP</t>
-  </si>
-  <si>
-    <t>Geneva (LSGG)</t>
-  </si>
-  <si>
-    <t>LSGG</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Zürich (LSZH)</t>
-  </si>
-  <si>
-    <t>LSZH</t>
-  </si>
-  <si>
-    <t>Change date</t>
-  </si>
-  <si>
-    <t>Entity</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Data for GCLP added</t>
-  </si>
-  <si>
-    <t>UK airports</t>
-  </si>
-  <si>
-    <t>UK airports removed</t>
+    <t>Montijo AirBase removed from Portuguese airports</t>
   </si>
 </sst>
 </file>
@@ -1299,6 +1299,9 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1307,9 +1310,6 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1373,7 +1373,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="6">
-        <v>44335.0</v>
+        <v>44391.0</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>6</v>
@@ -4366,7 +4366,7 @@
         <v>2499.0</v>
       </c>
       <c r="F147" s="21">
-        <f t="shared" ref="F147:F148" si="5">E147/D147</f>
+        <f>E147/D147</f>
         <v>0.4626064421</v>
       </c>
     </row>
@@ -4380,16 +4380,9 @@
       <c r="C148" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="D148" s="20">
-        <v>71.0</v>
-      </c>
-      <c r="E148" s="20">
-        <v>21.0</v>
-      </c>
-      <c r="F148" s="21">
-        <f t="shared" si="5"/>
-        <v>0.2957746479</v>
-      </c>
+      <c r="D148" s="20"/>
+      <c r="E148" s="20"/>
+      <c r="F148" s="21"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="18" t="s">
@@ -4401,9 +4394,16 @@
       <c r="C149" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="D149" s="20"/>
-      <c r="E149" s="20"/>
-      <c r="F149" s="21"/>
+      <c r="D149" s="20">
+        <v>21465.0</v>
+      </c>
+      <c r="E149" s="20">
+        <v>9895.0</v>
+      </c>
+      <c r="F149" s="21">
+        <f t="shared" ref="F149:F155" si="5">E149/D149</f>
+        <v>0.4609829956</v>
+      </c>
     </row>
     <row r="150" ht="12.75" customHeight="1">
       <c r="A150" s="18" t="s">
@@ -4416,14 +4416,14 @@
         <v>311</v>
       </c>
       <c r="D150" s="20">
-        <v>21465.0</v>
+        <v>691.0</v>
       </c>
       <c r="E150" s="20">
-        <v>9895.0</v>
+        <v>466.0</v>
       </c>
       <c r="F150" s="21">
-        <f t="shared" ref="F150:F156" si="6">E150/D150</f>
-        <v>0.4609829956</v>
+        <f t="shared" si="5"/>
+        <v>0.6743849493</v>
       </c>
     </row>
     <row r="151" ht="12.75" customHeight="1">
@@ -4437,14 +4437,14 @@
         <v>311</v>
       </c>
       <c r="D151" s="20">
-        <v>691.0</v>
+        <v>44214.0</v>
       </c>
       <c r="E151" s="20">
-        <v>466.0</v>
+        <v>24326.0</v>
       </c>
       <c r="F151" s="21">
-        <f t="shared" si="6"/>
-        <v>0.6743849493</v>
+        <f t="shared" si="5"/>
+        <v>0.5501877233</v>
       </c>
     </row>
     <row r="152" ht="12.75" customHeight="1">
@@ -4455,38 +4455,38 @@
         <v>331</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="D152" s="20">
-        <v>44214.0</v>
+        <v>1515.0</v>
       </c>
       <c r="E152" s="20">
-        <v>24326.0</v>
+        <v>463.0</v>
       </c>
       <c r="F152" s="21">
-        <f t="shared" si="6"/>
-        <v>0.5501877233</v>
+        <f t="shared" si="5"/>
+        <v>0.3056105611</v>
       </c>
     </row>
     <row r="153" ht="12.75" customHeight="1">
       <c r="A153" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="C153" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="B153" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="C153" s="19" t="s">
-        <v>334</v>
-      </c>
       <c r="D153" s="20">
-        <v>1515.0</v>
+        <v>24715.0</v>
       </c>
       <c r="E153" s="20">
-        <v>463.0</v>
+        <v>11948.0</v>
       </c>
       <c r="F153" s="21">
-        <f t="shared" si="6"/>
-        <v>0.3056105611</v>
+        <f t="shared" si="5"/>
+        <v>0.4834311147</v>
       </c>
     </row>
     <row r="154" ht="12.75" customHeight="1">
@@ -4497,61 +4497,41 @@
         <v>336</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D154" s="20">
-        <v>24715.0</v>
+        <v>38779.0</v>
       </c>
       <c r="E154" s="20">
-        <v>11948.0</v>
+        <v>7536.0</v>
       </c>
       <c r="F154" s="21">
-        <f t="shared" si="6"/>
-        <v>0.4834311147</v>
+        <f t="shared" si="5"/>
+        <v>0.1943319838</v>
       </c>
     </row>
     <row r="155" ht="12.75" customHeight="1">
       <c r="A155" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="C155" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="B155" s="18" t="s">
-        <v>338</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>339</v>
-      </c>
       <c r="D155" s="20">
-        <v>38779.0</v>
+        <v>52099.0</v>
       </c>
       <c r="E155" s="20">
-        <v>7536.0</v>
+        <v>10808.0</v>
       </c>
       <c r="F155" s="21">
-        <f t="shared" si="6"/>
-        <v>0.1943319838</v>
-      </c>
-    </row>
-    <row r="156" ht="12.75" customHeight="1">
-      <c r="A156" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="B156" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="C156" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="D156" s="20">
-        <v>52099.0</v>
-      </c>
-      <c r="E156" s="20">
-        <v>10808.0</v>
-      </c>
-      <c r="F156" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.2074511987</v>
       </c>
     </row>
+    <row r="156" ht="12.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4575,16 +4555,16 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>342</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>343</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -4598,7 +4578,7 @@
         <v>2020.0</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
@@ -4606,26 +4586,34 @@
         <v>44351.0</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C3" s="29">
         <v>2020.0</v>
       </c>
       <c r="D3" s="28" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" s="27">
+        <v>44391.0</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2020.0</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-    </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
